--- a/Team Backlog.xlsx
+++ b/Team Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Task Name</t>
   </si>
@@ -34,6 +34,9 @@
     <t>MAhmoud Sarhan</t>
   </si>
   <si>
+    <t>completed</t>
+  </si>
+  <si>
     <t>Timer</t>
   </si>
   <si>
@@ -73,10 +76,16 @@
     <t>APP</t>
   </si>
   <si>
-    <t>Basel , Mahmoud</t>
+    <t>In progress</t>
   </si>
   <si>
     <t>Design Document</t>
+  </si>
+  <si>
+    <t>compeleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">header files </t>
   </si>
 </sst>
 </file>
@@ -380,74 +389,124 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Team Backlog.xlsx
+++ b/Team Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Task Name</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>APP</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
   <si>
     <t>Design Document</t>
@@ -472,18 +469,24 @@
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2">
         <v>4.0</v>
@@ -494,13 +497,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2">
         <v>1.0</v>

--- a/Team Backlog.xlsx
+++ b/Team Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Task Name</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Temperature Sensor</t>
-  </si>
-  <si>
-    <t>arafa</t>
   </si>
   <si>
     <t>Timer Manager</t>
@@ -450,12 +447,12 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -463,7 +460,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
@@ -480,13 +477,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2">
         <v>4.0</v>
@@ -497,13 +494,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2">
         <v>1.0</v>

--- a/Team Backlog.xlsx
+++ b/Team Backlog.xlsx
@@ -400,6 +400,12 @@
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -408,6 +414,12 @@
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -416,6 +428,12 @@
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -424,6 +442,12 @@
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -449,6 +473,12 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -456,6 +486,12 @@
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
